--- a/standarizedRegistries.xlsx
+++ b/standarizedRegistries.xlsx
@@ -12,14 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="316">
+  <si>
+    <t>Departamento Entrada</t>
+  </si>
   <si>
     <t>Municipio Entrada</t>
   </si>
   <si>
-    <t>Departamento Entrada</t>
-  </si>
-  <si>
     <t>Localidad Entrada 1</t>
   </si>
   <si>
@@ -29,12 +29,12 @@
     <t>Localidad Entrada 3</t>
   </si>
   <si>
+    <t>Departamento Estandarizado</t>
+  </si>
+  <si>
     <t>Municipio Estandarizado</t>
   </si>
   <si>
-    <t>Departamento Estandarizado</t>
-  </si>
-  <si>
     <t>Localidad Estandarizado</t>
   </si>
   <si>
@@ -44,6 +44,9 @@
     <t>Mayor Levenstein Localidad</t>
   </si>
   <si>
+    <t>Mayor Valor Levenstein Localidad</t>
+  </si>
+  <si>
     <t>NORTE SANTANDER</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>Localidad: LA TRINIDAD</t>
   </si>
   <si>
+    <t>Localidad: 100</t>
+  </si>
+  <si>
     <t xml:space="preserve"> CULEBRITA</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
     <t>Localidad: LA LAGUNA</t>
   </si>
   <si>
+    <t>Localidad: 67</t>
+  </si>
+  <si>
     <t>ABREGO</t>
   </si>
   <si>
@@ -119,7 +128,7 @@
     <t>V RIO SANTO</t>
   </si>
   <si>
-    <t>Localidad: EL LIBANO</t>
+    <t>Localidad: SANTA ROSA</t>
   </si>
   <si>
     <t xml:space="preserve"> EL PORVENIR</t>
@@ -140,7 +149,10 @@
     <t>BARRANCABERMEJA</t>
   </si>
   <si>
-    <t>Localidad: SARDINA BAJA</t>
+    <t>Localidad: LA REFORMA</t>
+  </si>
+  <si>
+    <t>Localidad: 48</t>
   </si>
   <si>
     <t>LOURDES (LA CHINITA)</t>
@@ -152,7 +164,802 @@
     <t>LAS MERCEDES</t>
   </si>
   <si>
+    <t>LOURDES</t>
+  </si>
+  <si>
     <t>Localidad: LAS MERCEDES</t>
+  </si>
+  <si>
+    <t>LA DESPENCITA</t>
+  </si>
+  <si>
+    <t>Localidad: EL SILENCIO</t>
+  </si>
+  <si>
+    <t>Localidad: 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALTOMOVIL</t>
+  </si>
+  <si>
+    <t>ALTOMOVIL</t>
+  </si>
+  <si>
+    <t>ALTO MOVIL</t>
+  </si>
+  <si>
+    <t>Localidad: ALTO MOVIL</t>
+  </si>
+  <si>
+    <t>Localidad: 95</t>
+  </si>
+  <si>
+    <t>SARDINATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VEGUITAS</t>
+  </si>
+  <si>
+    <t>VEGUITAS</t>
+  </si>
+  <si>
+    <t>Localidad: VEGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOS TANQUES</t>
+  </si>
+  <si>
+    <t>Localidad: LOS PINOS</t>
+  </si>
+  <si>
+    <t>Localidad: 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BALCONES</t>
+  </si>
+  <si>
+    <t>BALCONES</t>
+  </si>
+  <si>
+    <t>Localidad: BALCONES</t>
+  </si>
+  <si>
+    <t>CUCUTA</t>
+  </si>
+  <si>
+    <t>BOSQUE</t>
+  </si>
+  <si>
+    <t>Localidad: SECTOR SUR</t>
+  </si>
+  <si>
+    <t>Localidad: 38</t>
+  </si>
+  <si>
+    <t>V GAJO MAYOR</t>
+  </si>
+  <si>
+    <t>GAJO MAYOR</t>
+  </si>
+  <si>
+    <t>Localidad: GAJO MAYOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAN AGUSTIN</t>
+  </si>
+  <si>
+    <t>SAN AGUSTIN</t>
+  </si>
+  <si>
+    <t>SAN AGUSTIN DE LA VEGA</t>
+  </si>
+  <si>
+    <t>Localidad: SAN AGUSTIN DE LA VEGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA PERLA</t>
+  </si>
+  <si>
+    <t>Localidad: LA ERMITA</t>
+  </si>
+  <si>
+    <t>SIN INFORMACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PABLO VI</t>
+  </si>
+  <si>
+    <t>Localidad: PALO PAVEZ</t>
+  </si>
+  <si>
+    <t>Localidad: 63</t>
+  </si>
+  <si>
+    <t>TEORAMA</t>
+  </si>
+  <si>
+    <t>VDA LOS RANCHOS</t>
+  </si>
+  <si>
+    <t>Localidad: SAN JUAN DE LOS LLANOS</t>
+  </si>
+  <si>
+    <t>Localidad: 54</t>
+  </si>
+  <si>
+    <t>VDA GAJO MAYOR</t>
+  </si>
+  <si>
+    <t>BOCHALEMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE LA DONJUANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BLANCO</t>
+  </si>
+  <si>
+    <t>LA DON JUANA</t>
+  </si>
+  <si>
+    <t>Localidad: LA DON JUANA</t>
+  </si>
+  <si>
+    <t>Localidad: 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA COLONIA</t>
+  </si>
+  <si>
+    <t>COLONIA</t>
+  </si>
+  <si>
+    <t>Localidad: COLONIA</t>
+  </si>
+  <si>
+    <t>RAGONVALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CALICHES</t>
+  </si>
+  <si>
+    <t>CALICHES</t>
+  </si>
+  <si>
+    <t>CALICHE</t>
+  </si>
+  <si>
+    <t>Localidad: CALICHE</t>
+  </si>
+  <si>
+    <t>Localidad: 93</t>
+  </si>
+  <si>
+    <t>VILLA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>PALO GORDO</t>
+  </si>
+  <si>
+    <t>PALOGORDO</t>
+  </si>
+  <si>
+    <t>Localidad: PALOGORDO</t>
+  </si>
+  <si>
+    <t>BLANCO</t>
+  </si>
+  <si>
+    <t>Localidad: AGUABLANCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>Localidad: SAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>SAN PABLO   PIEDRAS DE MOLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PIEDRAS DE M</t>
+  </si>
+  <si>
+    <t>SAN PABLO</t>
+  </si>
+  <si>
+    <t>Localidad: SAN PABLO</t>
+  </si>
+  <si>
+    <t>V LA LAGUNA</t>
+  </si>
+  <si>
+    <t>V  LA LAGUNA</t>
+  </si>
+  <si>
+    <t>LA LAGUNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PENA VIVA</t>
+  </si>
+  <si>
+    <t>PENA VIVA</t>
+  </si>
+  <si>
+    <t>Localidad: PENA VIVA</t>
+  </si>
+  <si>
+    <t>LA ESPERANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE SAN PABLO</t>
+  </si>
+  <si>
+    <t>Localidad: SAN ESTANISLAO</t>
+  </si>
+  <si>
+    <t>Localidad: 62</t>
+  </si>
+  <si>
+    <t>EL CARMEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOS JARDINES EL CARMEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOS JARDINES</t>
+  </si>
+  <si>
+    <t>Localidad: EL CARMEN</t>
+  </si>
+  <si>
+    <t>EL TARRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAS TORRES</t>
+  </si>
+  <si>
+    <t>LAS TORRES</t>
+  </si>
+  <si>
+    <t>Localidad: LAS TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EL SALTO</t>
+  </si>
+  <si>
+    <t>SALTO</t>
+  </si>
+  <si>
+    <t>Localidad: SALTO</t>
+  </si>
+  <si>
+    <t>MOTILONES</t>
+  </si>
+  <si>
+    <t>Localidad: LA FLORESTA</t>
+  </si>
+  <si>
+    <t>Localidad: 40</t>
+  </si>
+  <si>
+    <t>PAMPLONITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TESCUA</t>
+  </si>
+  <si>
+    <t>TESCUA</t>
+  </si>
+  <si>
+    <t>Localidad: TESCUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASITAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CASITAS</t>
+  </si>
+  <si>
+    <t>CASITAS</t>
+  </si>
+  <si>
+    <t>Localidad: CASITAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CERRO NEGRO BUENA VISTA</t>
+  </si>
+  <si>
+    <t>CERRO NEGRO</t>
+  </si>
+  <si>
+    <t>Localidad: BUENAVISTA</t>
+  </si>
+  <si>
+    <t>Localidad: 61</t>
+  </si>
+  <si>
+    <t>BRIDIKAINA</t>
+  </si>
+  <si>
+    <t>BIDIKAINA</t>
+  </si>
+  <si>
+    <t>Localidad: SANTA RITA</t>
+  </si>
+  <si>
+    <t>Localidad: 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRIMERO ENERO</t>
+  </si>
+  <si>
+    <t>CORREG SAN MARTIN DE LOBA</t>
+  </si>
+  <si>
+    <t>SAN MARTIN DE LOBA</t>
+  </si>
+  <si>
+    <t>Localidad: SANTA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHICAROS</t>
+  </si>
+  <si>
+    <t>CHICAROS</t>
+  </si>
+  <si>
+    <t>Localidad: EL CAIRO</t>
+  </si>
+  <si>
+    <t>LA EXPLAYADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA EXPLAYADA</t>
+  </si>
+  <si>
+    <t>LA EXPLANADA</t>
+  </si>
+  <si>
+    <t>Localidad: LA EXPLANADA</t>
+  </si>
+  <si>
+    <t>Localidad: 92</t>
+  </si>
+  <si>
+    <t>LABATECA</t>
+  </si>
+  <si>
+    <t>ROSARAGUA</t>
+  </si>
+  <si>
+    <t>Localidad: 56</t>
+  </si>
+  <si>
+    <t>BUCARASICA</t>
+  </si>
+  <si>
+    <t>VDA  PLANADAS</t>
+  </si>
+  <si>
+    <t>VDA PLANADAS</t>
+  </si>
+  <si>
+    <t>PLANADAS</t>
+  </si>
+  <si>
+    <t>Localidad: PLANADAS</t>
+  </si>
+  <si>
+    <t>VDA SAN PABLO</t>
+  </si>
+  <si>
+    <t>VDA  SANPABLO</t>
+  </si>
+  <si>
+    <t>CHINACOTA</t>
+  </si>
+  <si>
+    <t>PALO COLORADO</t>
+  </si>
+  <si>
+    <t>Localidad: PALO COLORADO</t>
+  </si>
+  <si>
+    <t>DURANIA</t>
+  </si>
+  <si>
+    <t>LA CRUZ</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>Localidad: SANTA ELENA</t>
+  </si>
+  <si>
+    <t>Localidad: 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BELLA VISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BELLA VISTA</t>
+  </si>
+  <si>
+    <t>BELLAVISTA</t>
+  </si>
+  <si>
+    <t>Localidad: BELLAVISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAN JOSE</t>
+  </si>
+  <si>
+    <t>SAN JOSE</t>
+  </si>
+  <si>
+    <t>Localidad: SAN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NARANJAL</t>
+  </si>
+  <si>
+    <t>NARANJAL</t>
+  </si>
+  <si>
+    <t>Localidad: NARANJAL</t>
+  </si>
+  <si>
+    <t>EL ZULIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA COLORADA</t>
+  </si>
+  <si>
+    <t>LA COLORADA</t>
+  </si>
+  <si>
+    <t>Localidad: LA COLORADA</t>
+  </si>
+  <si>
+    <t>Localidad: 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CENTRAL</t>
+  </si>
+  <si>
+    <t>Localidad: 64</t>
+  </si>
+  <si>
+    <t>V SAN PABLO</t>
+  </si>
+  <si>
+    <t>LA QUIEBRA DE SAN PABLO</t>
+  </si>
+  <si>
+    <t>Localidad: LA QUIEBRA DE SAN PABLO</t>
+  </si>
+  <si>
+    <t>Localidad: 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>Localidad: PAMPLONITA</t>
+  </si>
+  <si>
+    <t>LA HERMITA</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>AGUA BLANCA</t>
+  </si>
+  <si>
+    <t>Localidad: LA ANGOSTURA</t>
+  </si>
+  <si>
+    <t>AGUA BALNCA</t>
+  </si>
+  <si>
+    <t>Localidad: AGUAS CALIENTES</t>
+  </si>
+  <si>
+    <t>VDA EL ATILLO</t>
+  </si>
+  <si>
+    <t>Localidad: VENADILLO</t>
+  </si>
+  <si>
+    <t>V CAMPO ALICIA  F EL DELIRIO</t>
+  </si>
+  <si>
+    <t>V CAMPO ALICIA</t>
+  </si>
+  <si>
+    <t>CAMPO ALICIA</t>
+  </si>
+  <si>
+    <t>Localidad: CAMPO ALICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EL CHIPIO</t>
+  </si>
+  <si>
+    <t>VDA LA ESPERANZA</t>
+  </si>
+  <si>
+    <t>VDA QUEBRADA LA ESP</t>
+  </si>
+  <si>
+    <t>Localidad: 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BERLIN</t>
+  </si>
+  <si>
+    <t>BERLIN</t>
+  </si>
+  <si>
+    <t>Localidad: BERLIN</t>
+  </si>
+  <si>
+    <t>CERCA A LA ESCUELA RURAL PENA ALICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANZANARES</t>
+  </si>
+  <si>
+    <t>MANZANARES</t>
+  </si>
+  <si>
+    <t>Localidad: MANZANARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AHOYADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>Localidad: SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>VDA ROSARAGUA</t>
+  </si>
+  <si>
+    <t>Localidad: 55</t>
+  </si>
+  <si>
+    <t>VDA CHONA</t>
+  </si>
+  <si>
+    <t>CHONA</t>
+  </si>
+  <si>
+    <t>Localidad: CHONA</t>
+  </si>
+  <si>
+    <t>V LA MURALLA</t>
+  </si>
+  <si>
+    <t>LA MURALLA</t>
+  </si>
+  <si>
+    <t>Localidad: LA MURALLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EL CENTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CENTRO</t>
+  </si>
+  <si>
+    <t>Localidad: CANUELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIVINO NINO</t>
+  </si>
+  <si>
+    <t>DIVINO NINO</t>
+  </si>
+  <si>
+    <t>Localidad: DIVINO NINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KENEDY</t>
+  </si>
+  <si>
+    <t>Localidad: SAN VICENTE</t>
+  </si>
+  <si>
+    <t>Localidad: 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SANTA MARGARITA</t>
+  </si>
+  <si>
+    <t>GUAYABAL</t>
+  </si>
+  <si>
+    <t>Localidad: GUAYABAL</t>
+  </si>
+  <si>
+    <t>TIBU</t>
+  </si>
+  <si>
+    <t>Localidad: EL RETIRO</t>
+  </si>
+  <si>
+    <t>Localidad: 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URENGUE ( LA PAZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URENGUE</t>
+  </si>
+  <si>
+    <t>Localidad: LAUREL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TARRA SUR</t>
+  </si>
+  <si>
+    <t>TARRA SUR</t>
+  </si>
+  <si>
+    <t>Localidad: TARRA SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EL PEPO</t>
+  </si>
+  <si>
+    <t>SAN MARINO</t>
+  </si>
+  <si>
+    <t>Localidad: SAN JUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLANO GRANDE</t>
+  </si>
+  <si>
+    <t>LLANO GRANDE</t>
+  </si>
+  <si>
+    <t>Localidad: LLANO GRANDE</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROMAN</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>Localidad: ROMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SANTA LUCIA</t>
+  </si>
+  <si>
+    <t>SANTA LUCIA</t>
+  </si>
+  <si>
+    <t>Localidad: SANTA LUCIA</t>
+  </si>
+  <si>
+    <t>EL ROSAL</t>
+  </si>
+  <si>
+    <t>Localidad: 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA PALMITA</t>
+  </si>
+  <si>
+    <t>LA PALMITA</t>
+  </si>
+  <si>
+    <t>Localidad: LA PALMITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CENTRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUISVEROS</t>
+  </si>
+  <si>
+    <t>CORREG LUISVEROS</t>
+  </si>
+  <si>
+    <t>LUIS VERO</t>
+  </si>
+  <si>
+    <t>Localidad: LUIS VERO</t>
+  </si>
+  <si>
+    <t>Localidad: 89</t>
+  </si>
+  <si>
+    <t>COREG LUISVEROS</t>
+  </si>
+  <si>
+    <t>CUCUTILLA</t>
+  </si>
+  <si>
+    <t>AGUADAS</t>
+  </si>
+  <si>
+    <t>Localidad: AGUADAS</t>
+  </si>
+  <si>
+    <t>VDA LA SALINA</t>
+  </si>
+  <si>
+    <t>VLA SALINA</t>
+  </si>
+  <si>
+    <t>Localidad: LA AZULITA</t>
+  </si>
+  <si>
+    <t>Localidad: 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CENTENARIO</t>
+  </si>
+  <si>
+    <t>CENTENARIO</t>
+  </si>
+  <si>
+    <t>Localidad: 47</t>
+  </si>
+  <si>
+    <t>V MACANAL SOLEDAD</t>
+  </si>
+  <si>
+    <t>SOLEDAD</t>
+  </si>
+  <si>
+    <t>Localidad: SOLEDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CUCUTILLITA</t>
+  </si>
+  <si>
+    <t>CUCUTILLITA</t>
+  </si>
+  <si>
+    <t>Localidad: CUCUTILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EL RECEPTOR</t>
+  </si>
+  <si>
+    <t>EL RECEPTOR</t>
+  </si>
+  <si>
+    <t>Localidad: EL RECEPTOR</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>VILLAS DE SANTIAGO</t>
+  </si>
+  <si>
+    <t>Localidad: SANTIAGO</t>
   </si>
 </sst>
 </file>
@@ -234,266 +1041,3399 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
         <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.4206039E7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.4206016E7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.4003072E7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.4498017E7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.4206025E7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.4418009E7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.4128002E7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.4128002E7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.4720003E7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.4206028E7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.4128043E7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.4206028E7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2242.0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.4099008E7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.4599003E7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.4874006E7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.47201E7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.4800087E7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.4206036E7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.4099015E7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2234.0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>133</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.4250012E7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.409902E7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.4520024E7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.4003013E7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>134</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43" t="s">
+        <v>163</v>
+      </c>
+      <c r="K43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44" t="s">
+        <v>166</v>
+      </c>
+      <c r="K44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.4128025E7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>170</v>
+      </c>
+      <c r="K45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.4109028E7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.4109032E7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.4172022E7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>185</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50"/>
+      <c r="J50" t="s">
+        <v>188</v>
+      </c>
+      <c r="K50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" t="s">
+        <v>192</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.4385005E7</v>
+      </c>
+      <c r="J51" t="s">
+        <v>193</v>
+      </c>
+      <c r="K51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" t="s">
+        <v>195</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.459901E7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>196</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" t="s">
+        <v>198</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.4599008E7</v>
+      </c>
+      <c r="J53" t="s">
+        <v>199</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" t="s">
+        <v>198</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5.4599008E7</v>
+      </c>
+      <c r="J54" t="s">
+        <v>199</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>200</v>
+      </c>
+      <c r="H55" t="s">
+        <v>202</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.4261018E7</v>
+      </c>
+      <c r="J55" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.4250012E7</v>
+      </c>
+      <c r="J56" t="s">
+        <v>137</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58"/>
+      <c r="J58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K58" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>208</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.4206038E7</v>
+      </c>
+      <c r="J59" t="s">
+        <v>209</v>
+      </c>
+      <c r="K59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" t="s">
+        <v>144</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2262.0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>212</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62"/>
+      <c r="J62" t="s">
+        <v>216</v>
+      </c>
+      <c r="K62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63"/>
+      <c r="J63" t="s">
+        <v>218</v>
+      </c>
+      <c r="K63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64"/>
+      <c r="J64" t="s">
+        <v>220</v>
+      </c>
+      <c r="K64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>200</v>
+      </c>
+      <c r="H65" t="s">
+        <v>223</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.4261007E7</v>
+      </c>
+      <c r="J65" t="s">
+        <v>224</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.4874006E7</v>
+      </c>
+      <c r="J66" t="s">
+        <v>110</v>
+      </c>
+      <c r="K66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.4498017E7</v>
+      </c>
+      <c r="J67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.4720006E7</v>
+      </c>
+      <c r="J68" t="s">
+        <v>231</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>200</v>
+      </c>
+      <c r="H69" t="s">
+        <v>223</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.4261007E7</v>
+      </c>
+      <c r="J69" t="s">
+        <v>224</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>182</v>
+      </c>
+      <c r="H70" t="s">
+        <v>234</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.4172017E7</v>
+      </c>
+      <c r="J70" t="s">
+        <v>235</v>
+      </c>
+      <c r="K70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" t="s">
+        <v>238</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.4418016E7</v>
+      </c>
+      <c r="J71" t="s">
+        <v>239</v>
+      </c>
+      <c r="K71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72" t="s">
+        <v>195</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5.459901E7</v>
+      </c>
+      <c r="J72" t="s">
+        <v>196</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>172</v>
+      </c>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73"/>
+      <c r="J73" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>172</v>
+      </c>
+      <c r="H74" t="s">
+        <v>243</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.437701E7</v>
+      </c>
+      <c r="J74" t="s">
+        <v>244</v>
+      </c>
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" t="s">
+        <v>246</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.4800037E7</v>
+      </c>
+      <c r="J75" t="s">
+        <v>247</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>101</v>
+      </c>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76"/>
+      <c r="J76" t="s">
+        <v>250</v>
+      </c>
+      <c r="K76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" t="s">
+        <v>251</v>
+      </c>
+      <c r="D77" t="s">
+        <v>252</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>134</v>
+      </c>
+      <c r="H77" t="s">
+        <v>252</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.4250028E7</v>
+      </c>
+      <c r="J77" t="s">
+        <v>253</v>
+      </c>
+      <c r="K77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" t="s">
+        <v>254</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78"/>
+      <c r="J78" t="s">
+        <v>255</v>
+      </c>
+      <c r="K78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>182</v>
+      </c>
+      <c r="H79" t="s">
+        <v>258</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.4172008E7</v>
+      </c>
+      <c r="J79" t="s">
+        <v>259</v>
+      </c>
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" t="s">
+        <v>249</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>260</v>
+      </c>
+      <c r="H80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80"/>
+      <c r="J80" t="s">
+        <v>261</v>
+      </c>
+      <c r="K80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>92</v>
+      </c>
+      <c r="H81" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H82" t="s">
+        <v>267</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5.425001E7</v>
+      </c>
+      <c r="J82" t="s">
+        <v>268</v>
+      </c>
+      <c r="K82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>214</v>
+      </c>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83" t="s">
+        <v>216</v>
+      </c>
+      <c r="K83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>270</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>185</v>
+      </c>
+      <c r="H84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84" t="s">
+        <v>271</v>
+      </c>
+      <c r="K84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85" t="s">
+        <v>273</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5.4720084E7</v>
+      </c>
+      <c r="J85" t="s">
+        <v>274</v>
+      </c>
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" t="s">
+        <v>276</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>275</v>
+      </c>
+      <c r="H86" t="s">
+        <v>277</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.4820049E7</v>
+      </c>
+      <c r="J86" t="s">
+        <v>278</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>279</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s">
+        <v>280</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.4800073E7</v>
+      </c>
+      <c r="J87" t="s">
+        <v>281</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88" t="s">
+        <v>142</v>
+      </c>
+      <c r="K88" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" t="s">
+        <v>284</v>
+      </c>
+      <c r="D89" t="s">
+        <v>285</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>144</v>
+      </c>
+      <c r="H89" t="s">
+        <v>285</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.4520015E7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>286</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>144</v>
+      </c>
+      <c r="H90" t="s">
+        <v>146</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.4520024E7</v>
+      </c>
+      <c r="J90" t="s">
+        <v>147</v>
+      </c>
+      <c r="K90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" t="s">
+        <v>287</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>87</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91"/>
+      <c r="J91" t="s">
+        <v>115</v>
+      </c>
+      <c r="K91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" t="s">
+        <v>289</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>60</v>
+      </c>
+      <c r="H92" t="s">
+        <v>290</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2256.0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>291</v>
+      </c>
+      <c r="K92" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" t="s">
+        <v>288</v>
+      </c>
+      <c r="D93" t="s">
+        <v>293</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>60</v>
+      </c>
+      <c r="H93" t="s">
+        <v>290</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2256.0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>291</v>
+      </c>
+      <c r="K93" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" t="s">
+        <v>295</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>294</v>
+      </c>
+      <c r="H94" t="s">
+        <v>295</v>
+      </c>
+      <c r="I94" t="n">
+        <v>5.4223001E7</v>
+      </c>
+      <c r="J94" t="s">
+        <v>296</v>
+      </c>
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>175</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95"/>
+      <c r="J95" t="s">
+        <v>299</v>
+      </c>
+      <c r="K95" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" t="s">
+        <v>301</v>
+      </c>
+      <c r="D96" t="s">
+        <v>302</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96" t="s">
+        <v>250</v>
+      </c>
+      <c r="K96" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>304</v>
+      </c>
+      <c r="D97" t="s">
+        <v>304</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>305</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5.4206075E7</v>
+      </c>
+      <c r="J97" t="s">
+        <v>306</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" t="s">
+        <v>308</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>294</v>
+      </c>
+      <c r="H98" t="s">
+        <v>294</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2232.0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>309</v>
+      </c>
+      <c r="K98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" t="s">
+        <v>310</v>
+      </c>
+      <c r="D99" t="s">
+        <v>310</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>134</v>
+      </c>
+      <c r="H99" t="s">
+        <v>311</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.4250011E7</v>
+      </c>
+      <c r="J99" t="s">
+        <v>312</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>313</v>
+      </c>
+      <c r="C100" t="s">
+        <v>314</v>
+      </c>
+      <c r="D100" t="s">
+        <v>314</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>313</v>
+      </c>
+      <c r="H100" t="s">
+        <v>313</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2270.0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>315</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
